--- a/main/ig/StructureDefinition-fr-core-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-fr-core-patient-ins.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7952" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7952" uniqueCount="904">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:07:51+00:00</t>
+    <t>2025-10-22T14:21:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -447,7 +447,7 @@
     <t>Patient.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -504,7 +504,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -528,7 +528,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -571,7 +571,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -901,7 +901,7 @@
     <t>birthPlace</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {patient-birthPlace|5.3.0-ballot-tc1}
+    <t xml:space="preserve">Extension {patient-birthPlace|5.2.0}
 </t>
   </si>
   <si>
@@ -927,6 +927,13 @@
   </si>
   <si>
     <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address}
+</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext-1
 </t>
   </si>
   <si>
@@ -1496,7 +1503,7 @@
     <t>Patient.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1742,7 +1749,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Patient.identifier:INS-NIR.system</t>
@@ -2533,7 +2540,7 @@
     <t>The nature of the relationship between a patient and a contact person for that patient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
+    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship|4.0.1</t>
   </si>
   <si>
     <t>code</t>
@@ -2830,7 +2837,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -9283,7 +9290,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>281</v>
       </c>
@@ -9379,7 +9386,7 @@
         <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>119</v>
@@ -9428,7 +9435,7 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>105</v>
@@ -9494,7 +9501,7 @@
         <v>90</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>82</v>
@@ -9781,7 +9788,7 @@
         <v>230</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>231</v>
+        <v>292</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9841,7 +9848,7 @@
         <v>90</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>82</v>
+        <v>293</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>102</v>
@@ -9864,10 +9871,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9979,10 +9986,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -10094,13 +10101,13 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>82</v>
@@ -10122,13 +10129,13 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -10211,10 +10218,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -10240,16 +10247,16 @@
         <v>172</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -10262,7 +10269,7 @@
         <v>82</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="U61" t="s" s="2">
         <v>82</v>
@@ -10277,10 +10284,10 @@
         <v>263</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -10298,7 +10305,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -10313,7 +10320,7 @@
         <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>82</v>
@@ -10322,7 +10329,7 @@
         <v>82</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -10330,10 +10337,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10359,13 +10366,13 @@
         <v>172</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -10379,7 +10386,7 @@
         <v>82</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="U62" t="s" s="2">
         <v>82</v>
@@ -10394,10 +10401,10 @@
         <v>263</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>82</v>
@@ -10415,7 +10422,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -10430,7 +10437,7 @@
         <v>102</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>82</v>
@@ -10439,7 +10446,7 @@
         <v>82</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -10447,10 +10454,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10476,16 +10483,16 @@
         <v>104</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -10498,7 +10505,7 @@
         <v>82</v>
       </c>
       <c r="T63" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="U63" t="s" s="2">
         <v>82</v>
@@ -10534,7 +10541,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -10549,7 +10556,7 @@
         <v>102</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>82</v>
@@ -10558,7 +10565,7 @@
         <v>82</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -10566,10 +10573,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10595,10 +10602,10 @@
         <v>104</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -10613,7 +10620,7 @@
         <v>82</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="U64" t="s" s="2">
         <v>82</v>
@@ -10649,7 +10656,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -10664,7 +10671,7 @@
         <v>102</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>82</v>
@@ -10673,7 +10680,7 @@
         <v>82</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -10681,14 +10688,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -10710,10 +10717,10 @@
         <v>104</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10728,7 +10735,7 @@
         <v>82</v>
       </c>
       <c r="T65" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="U65" t="s" s="2">
         <v>82</v>
@@ -10764,7 +10771,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10779,7 +10786,7 @@
         <v>102</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>82</v>
@@ -10788,7 +10795,7 @@
         <v>82</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -10796,14 +10803,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -10825,13 +10832,13 @@
         <v>104</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10845,7 +10852,7 @@
         <v>82</v>
       </c>
       <c r="T66" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="U66" t="s" s="2">
         <v>82</v>
@@ -10881,7 +10888,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10896,7 +10903,7 @@
         <v>102</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>82</v>
@@ -10905,7 +10912,7 @@
         <v>82</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
@@ -10913,14 +10920,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10942,10 +10949,10 @@
         <v>104</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10996,7 +11003,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -11011,7 +11018,7 @@
         <v>102</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>82</v>
@@ -11020,7 +11027,7 @@
         <v>82</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -11028,14 +11035,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -11057,10 +11064,10 @@
         <v>104</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -11075,7 +11082,7 @@
         <v>82</v>
       </c>
       <c r="T68" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="U68" t="s" s="2">
         <v>82</v>
@@ -11111,7 +11118,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -11126,7 +11133,7 @@
         <v>102</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>82</v>
@@ -11135,7 +11142,7 @@
         <v>82</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
@@ -11143,10 +11150,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -11172,13 +11179,13 @@
         <v>104</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -11228,7 +11235,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -11243,7 +11250,7 @@
         <v>102</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>82</v>
@@ -11252,7 +11259,7 @@
         <v>82</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -11260,10 +11267,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11286,17 +11293,17 @@
         <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -11309,7 +11316,7 @@
         <v>82</v>
       </c>
       <c r="T70" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="U70" t="s" s="2">
         <v>82</v>
@@ -11345,7 +11352,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -11360,7 +11367,7 @@
         <v>102</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>82</v>
@@ -11369,7 +11376,7 @@
         <v>82</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -11377,13 +11384,13 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>82</v>
@@ -11405,13 +11412,13 @@
         <v>82</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -11494,10 +11501,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11523,16 +11530,16 @@
         <v>111</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="N72" t="s" s="2">
         <v>114</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -11581,7 +11588,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11613,10 +11620,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11639,17 +11646,17 @@
         <v>91</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11686,10 +11693,10 @@
         <v>82</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>82</v>
@@ -11698,7 +11705,7 @@
         <v>117</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11713,16 +11720,16 @@
         <v>102</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11730,13 +11737,13 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>82</v>
@@ -11758,17 +11765,17 @@
         <v>91</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11817,7 +11824,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11832,16 +11839,16 @@
         <v>102</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11849,10 +11856,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11964,10 +11971,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -12081,10 +12088,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -12110,16 +12117,16 @@
         <v>172</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>82</v>
@@ -12129,7 +12136,7 @@
         <v>82</v>
       </c>
       <c r="S77" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="T77" t="s" s="2">
         <v>82</v>
@@ -12147,10 +12154,10 @@
         <v>263</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>82</v>
@@ -12168,7 +12175,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -12183,7 +12190,7 @@
         <v>102</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>82</v>
@@ -12200,10 +12207,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12226,19 +12233,19 @@
         <v>91</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>82</v>
@@ -12248,7 +12255,7 @@
         <v>82</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>82</v>
@@ -12267,7 +12274,7 @@
       </c>
       <c r="Y78" s="2"/>
       <c r="Z78" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>82</v>
@@ -12285,7 +12292,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -12300,7 +12307,7 @@
         <v>102</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>82</v>
@@ -12309,7 +12316,7 @@
         <v>82</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
@@ -12317,10 +12324,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12346,16 +12353,16 @@
         <v>132</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -12365,10 +12372,10 @@
         <v>82</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="T79" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="U79" t="s" s="2">
         <v>82</v>
@@ -12404,7 +12411,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -12419,7 +12426,7 @@
         <v>102</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>82</v>
@@ -12428,7 +12435,7 @@
         <v>82</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -12436,10 +12443,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12465,13 +12472,13 @@
         <v>104</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -12485,7 +12492,7 @@
         <v>82</v>
       </c>
       <c r="T80" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="U80" t="s" s="2">
         <v>82</v>
@@ -12521,7 +12528,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12536,7 +12543,7 @@
         <v>102</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>82</v>
@@ -12545,7 +12552,7 @@
         <v>82</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
@@ -12553,10 +12560,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12579,13 +12586,13 @@
         <v>91</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -12636,7 +12643,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12651,7 +12658,7 @@
         <v>102</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>82</v>
@@ -12660,7 +12667,7 @@
         <v>82</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
@@ -12668,10 +12675,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12694,16 +12701,16 @@
         <v>91</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -12753,7 +12760,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12768,7 +12775,7 @@
         <v>102</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>82</v>
@@ -12777,7 +12784,7 @@
         <v>82</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -12785,13 +12792,13 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>82</v>
@@ -12813,17 +12820,17 @@
         <v>91</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>82</v>
@@ -12872,7 +12879,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12887,16 +12894,16 @@
         <v>102</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12904,10 +12911,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -13019,10 +13026,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -13136,10 +13143,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13165,16 +13172,16 @@
         <v>172</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -13184,7 +13191,7 @@
         <v>82</v>
       </c>
       <c r="S86" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="T86" t="s" s="2">
         <v>82</v>
@@ -13202,10 +13209,10 @@
         <v>263</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>82</v>
@@ -13223,7 +13230,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -13238,7 +13245,7 @@
         <v>102</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>82</v>
@@ -13255,10 +13262,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13281,19 +13288,19 @@
         <v>91</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -13303,7 +13310,7 @@
         <v>82</v>
       </c>
       <c r="S87" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="T87" t="s" s="2">
         <v>82</v>
@@ -13322,7 +13329,7 @@
       </c>
       <c r="Y87" s="2"/>
       <c r="Z87" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>82</v>
@@ -13340,7 +13347,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -13355,7 +13362,7 @@
         <v>102</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>82</v>
@@ -13364,7 +13371,7 @@
         <v>82</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -13372,10 +13379,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13401,16 +13408,16 @@
         <v>132</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -13420,10 +13427,10 @@
         <v>82</v>
       </c>
       <c r="S88" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="T88" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="U88" t="s" s="2">
         <v>82</v>
@@ -13459,7 +13466,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -13474,7 +13481,7 @@
         <v>102</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>82</v>
@@ -13483,7 +13490,7 @@
         <v>82</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>82</v>
@@ -13491,10 +13498,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13520,13 +13527,13 @@
         <v>104</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -13540,7 +13547,7 @@
         <v>82</v>
       </c>
       <c r="T89" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="U89" t="s" s="2">
         <v>82</v>
@@ -13576,7 +13583,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13591,7 +13598,7 @@
         <v>102</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>82</v>
@@ -13600,7 +13607,7 @@
         <v>82</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>82</v>
@@ -13608,10 +13615,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13634,13 +13641,13 @@
         <v>91</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -13691,7 +13698,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13706,7 +13713,7 @@
         <v>102</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>82</v>
@@ -13715,7 +13722,7 @@
         <v>82</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>82</v>
@@ -13723,10 +13730,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13749,16 +13756,16 @@
         <v>91</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13808,7 +13815,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13823,7 +13830,7 @@
         <v>102</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>82</v>
@@ -13832,7 +13839,7 @@
         <v>82</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13840,13 +13847,13 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D92" t="s" s="2">
         <v>82</v>
@@ -13868,17 +13875,17 @@
         <v>91</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13927,7 +13934,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13942,16 +13949,16 @@
         <v>102</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>82</v>
@@ -13959,10 +13966,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -14074,10 +14081,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -14191,10 +14198,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -14220,16 +14227,16 @@
         <v>172</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>82</v>
@@ -14239,7 +14246,7 @@
         <v>82</v>
       </c>
       <c r="S95" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="T95" t="s" s="2">
         <v>82</v>
@@ -14257,10 +14264,10 @@
         <v>263</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>82</v>
@@ -14278,7 +14285,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -14293,7 +14300,7 @@
         <v>102</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>82</v>
@@ -14310,10 +14317,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14336,19 +14343,19 @@
         <v>91</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>82</v>
@@ -14358,7 +14365,7 @@
         <v>82</v>
       </c>
       <c r="S96" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="T96" t="s" s="2">
         <v>82</v>
@@ -14377,7 +14384,7 @@
       </c>
       <c r="Y96" s="2"/>
       <c r="Z96" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>82</v>
@@ -14395,7 +14402,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -14410,7 +14417,7 @@
         <v>102</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>82</v>
@@ -14419,7 +14426,7 @@
         <v>82</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
@@ -14427,10 +14434,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14456,16 +14463,16 @@
         <v>132</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>82</v>
@@ -14475,10 +14482,10 @@
         <v>82</v>
       </c>
       <c r="S97" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="T97" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="U97" t="s" s="2">
         <v>82</v>
@@ -14514,7 +14521,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14529,7 +14536,7 @@
         <v>102</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>82</v>
@@ -14538,7 +14545,7 @@
         <v>82</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -14546,10 +14553,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14575,13 +14582,13 @@
         <v>104</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -14595,7 +14602,7 @@
         <v>82</v>
       </c>
       <c r="T98" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="U98" t="s" s="2">
         <v>82</v>
@@ -14631,7 +14638,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14646,7 +14653,7 @@
         <v>102</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>82</v>
@@ -14655,7 +14662,7 @@
         <v>82</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14663,10 +14670,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14689,13 +14696,13 @@
         <v>91</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -14746,7 +14753,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14761,7 +14768,7 @@
         <v>102</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>82</v>
@@ -14770,7 +14777,7 @@
         <v>82</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
@@ -14778,10 +14785,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14804,16 +14811,16 @@
         <v>91</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -14863,7 +14870,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14878,7 +14885,7 @@
         <v>102</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>82</v>
@@ -14887,7 +14894,7 @@
         <v>82</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>82</v>
@@ -14895,13 +14902,13 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D101" t="s" s="2">
         <v>82</v>
@@ -14923,17 +14930,17 @@
         <v>91</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>82</v>
@@ -14982,7 +14989,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14997,16 +15004,16 @@
         <v>102</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>82</v>
@@ -15014,10 +15021,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -15129,10 +15136,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -15246,10 +15253,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15275,16 +15282,16 @@
         <v>172</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>82</v>
@@ -15313,7 +15320,7 @@
       </c>
       <c r="Y104" s="2"/>
       <c r="Z104" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>82</v>
@@ -15331,7 +15338,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15346,7 +15353,7 @@
         <v>102</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>82</v>
@@ -15363,10 +15370,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15389,19 +15396,19 @@
         <v>91</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -15411,7 +15418,7 @@
         <v>82</v>
       </c>
       <c r="S105" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="T105" t="s" s="2">
         <v>82</v>
@@ -15430,7 +15437,7 @@
       </c>
       <c r="Y105" s="2"/>
       <c r="Z105" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>82</v>
@@ -15448,7 +15455,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15463,7 +15470,7 @@
         <v>102</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>82</v>
@@ -15472,7 +15479,7 @@
         <v>82</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>82</v>
@@ -15480,10 +15487,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15509,16 +15516,16 @@
         <v>132</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15531,7 +15538,7 @@
         <v>82</v>
       </c>
       <c r="T106" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="U106" t="s" s="2">
         <v>82</v>
@@ -15567,7 +15574,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15582,7 +15589,7 @@
         <v>102</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>82</v>
@@ -15591,7 +15598,7 @@
         <v>82</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>82</v>
@@ -15599,10 +15606,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15628,13 +15635,13 @@
         <v>104</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -15648,7 +15655,7 @@
         <v>82</v>
       </c>
       <c r="T107" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="U107" t="s" s="2">
         <v>82</v>
@@ -15684,7 +15691,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15699,7 +15706,7 @@
         <v>102</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>82</v>
@@ -15708,7 +15715,7 @@
         <v>82</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
@@ -15716,10 +15723,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15742,13 +15749,13 @@
         <v>91</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -15799,7 +15806,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15814,7 +15821,7 @@
         <v>102</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>82</v>
@@ -15823,7 +15830,7 @@
         <v>82</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
@@ -15831,10 +15838,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15857,16 +15864,16 @@
         <v>91</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15916,7 +15923,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15931,7 +15938,7 @@
         <v>102</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>82</v>
@@ -15940,7 +15947,7 @@
         <v>82</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>82</v>
@@ -15948,13 +15955,13 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D110" t="s" s="2">
         <v>82</v>
@@ -15976,17 +15983,17 @@
         <v>91</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -16035,7 +16042,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -16050,16 +16057,16 @@
         <v>102</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -16067,10 +16074,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16182,10 +16189,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16299,10 +16306,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16328,16 +16335,16 @@
         <v>172</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
@@ -16347,7 +16354,7 @@
         <v>82</v>
       </c>
       <c r="S113" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="T113" t="s" s="2">
         <v>82</v>
@@ -16365,10 +16372,10 @@
         <v>263</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>82</v>
@@ -16386,7 +16393,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16401,7 +16408,7 @@
         <v>102</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>82</v>
@@ -16418,10 +16425,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16444,19 +16451,19 @@
         <v>91</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>82</v>
@@ -16466,7 +16473,7 @@
         <v>82</v>
       </c>
       <c r="S114" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="T114" t="s" s="2">
         <v>82</v>
@@ -16485,7 +16492,7 @@
       </c>
       <c r="Y114" s="2"/>
       <c r="Z114" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>82</v>
@@ -16503,7 +16510,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16518,7 +16525,7 @@
         <v>102</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>82</v>
@@ -16527,7 +16534,7 @@
         <v>82</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>82</v>
@@ -16535,10 +16542,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16564,16 +16571,16 @@
         <v>132</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
@@ -16586,7 +16593,7 @@
         <v>82</v>
       </c>
       <c r="T115" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="U115" t="s" s="2">
         <v>82</v>
@@ -16622,7 +16629,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16637,7 +16644,7 @@
         <v>102</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>82</v>
@@ -16646,7 +16653,7 @@
         <v>82</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>
@@ -16654,10 +16661,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16683,13 +16690,13 @@
         <v>104</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -16703,7 +16710,7 @@
         <v>82</v>
       </c>
       <c r="T116" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="U116" t="s" s="2">
         <v>82</v>
@@ -16739,7 +16746,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16754,7 +16761,7 @@
         <v>102</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>82</v>
@@ -16763,7 +16770,7 @@
         <v>82</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>82</v>
@@ -16771,10 +16778,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16797,13 +16804,13 @@
         <v>91</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -16854,7 +16861,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16869,7 +16876,7 @@
         <v>102</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>82</v>
@@ -16878,7 +16885,7 @@
         <v>82</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>82</v>
@@ -16886,10 +16893,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16912,16 +16919,16 @@
         <v>91</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
@@ -16971,7 +16978,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16986,7 +16993,7 @@
         <v>102</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>82</v>
@@ -16995,21 +17002,21 @@
         <v>82</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="119" hidden="true">
+    <row r="119">
       <c r="A119" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D119" t="s" s="2">
         <v>82</v>
@@ -17031,17 +17038,17 @@
         <v>91</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>82</v>
@@ -17090,7 +17097,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -17105,16 +17112,16 @@
         <v>102</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>82</v>
@@ -17122,10 +17129,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17237,10 +17244,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17354,10 +17361,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17383,16 +17390,16 @@
         <v>172</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>82</v>
@@ -17421,7 +17428,7 @@
       </c>
       <c r="Y122" s="2"/>
       <c r="Z122" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>82</v>
@@ -17439,7 +17446,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17454,7 +17461,7 @@
         <v>102</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>82</v>
@@ -17471,10 +17478,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17497,19 +17504,19 @@
         <v>91</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>82</v>
@@ -17519,7 +17526,7 @@
         <v>82</v>
       </c>
       <c r="S123" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="T123" t="s" s="2">
         <v>82</v>
@@ -17537,10 +17544,10 @@
         <v>154</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="Z123" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="AA123" t="s" s="2">
         <v>82</v>
@@ -17558,7 +17565,7 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -17573,7 +17580,7 @@
         <v>102</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>82</v>
@@ -17582,7 +17589,7 @@
         <v>82</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>82</v>
@@ -17590,10 +17597,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17619,16 +17626,16 @@
         <v>132</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>82</v>
@@ -17638,10 +17645,10 @@
         <v>82</v>
       </c>
       <c r="S124" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="T124" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="U124" t="s" s="2">
         <v>82</v>
@@ -17677,7 +17684,7 @@
         <v>82</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -17692,7 +17699,7 @@
         <v>102</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>82</v>
@@ -17701,7 +17708,7 @@
         <v>82</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>82</v>
@@ -17709,10 +17716,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17738,13 +17745,13 @@
         <v>104</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
@@ -17758,7 +17765,7 @@
         <v>82</v>
       </c>
       <c r="T125" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="U125" t="s" s="2">
         <v>82</v>
@@ -17794,7 +17801,7 @@
         <v>82</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
@@ -17809,7 +17816,7 @@
         <v>102</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>82</v>
@@ -17818,7 +17825,7 @@
         <v>82</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>82</v>
@@ -17826,10 +17833,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17852,13 +17859,13 @@
         <v>91</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -17909,7 +17916,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -17924,7 +17931,7 @@
         <v>102</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>82</v>
@@ -17933,7 +17940,7 @@
         <v>82</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>82</v>
@@ -17941,10 +17948,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17967,16 +17974,16 @@
         <v>91</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
@@ -18026,7 +18033,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -18041,7 +18048,7 @@
         <v>102</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>82</v>
@@ -18050,7 +18057,7 @@
         <v>82</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>82</v>
@@ -18058,13 +18065,13 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D128" t="s" s="2">
         <v>82</v>
@@ -18086,17 +18093,17 @@
         <v>91</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>82</v>
@@ -18145,7 +18152,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -18160,16 +18167,16 @@
         <v>102</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>82</v>
@@ -18177,10 +18184,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18292,10 +18299,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18409,10 +18416,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18438,16 +18445,16 @@
         <v>172</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="O131" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>82</v>
@@ -18457,7 +18464,7 @@
         <v>82</v>
       </c>
       <c r="S131" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="T131" t="s" s="2">
         <v>82</v>
@@ -18475,10 +18482,10 @@
         <v>263</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Z131" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AA131" t="s" s="2">
         <v>82</v>
@@ -18496,7 +18503,7 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -18511,7 +18518,7 @@
         <v>102</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>82</v>
@@ -18528,10 +18535,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18554,19 +18561,19 @@
         <v>91</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="O132" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>82</v>
@@ -18576,7 +18583,7 @@
         <v>82</v>
       </c>
       <c r="S132" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="T132" t="s" s="2">
         <v>82</v>
@@ -18594,10 +18601,10 @@
         <v>154</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="Z132" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="AA132" t="s" s="2">
         <v>82</v>
@@ -18615,7 +18622,7 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -18630,7 +18637,7 @@
         <v>102</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>82</v>
@@ -18639,7 +18646,7 @@
         <v>82</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>82</v>
@@ -18647,10 +18654,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18676,16 +18683,16 @@
         <v>132</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="O133" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>82</v>
@@ -18695,10 +18702,10 @@
         <v>82</v>
       </c>
       <c r="S133" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="T133" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="U133" t="s" s="2">
         <v>82</v>
@@ -18734,7 +18741,7 @@
         <v>82</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
@@ -18749,7 +18756,7 @@
         <v>102</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>82</v>
@@ -18758,7 +18765,7 @@
         <v>82</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>82</v>
@@ -18766,10 +18773,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18795,13 +18802,13 @@
         <v>104</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="O134" s="2"/>
       <c r="P134" t="s" s="2">
@@ -18815,7 +18822,7 @@
         <v>82</v>
       </c>
       <c r="T134" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="U134" t="s" s="2">
         <v>82</v>
@@ -18851,7 +18858,7 @@
         <v>82</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
@@ -18866,7 +18873,7 @@
         <v>102</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>82</v>
@@ -18875,7 +18882,7 @@
         <v>82</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>82</v>
@@ -18883,10 +18890,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18909,13 +18916,13 @@
         <v>91</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -18966,7 +18973,7 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -18981,7 +18988,7 @@
         <v>102</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>82</v>
@@ -18990,7 +18997,7 @@
         <v>82</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>82</v>
@@ -18998,10 +19005,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19024,16 +19031,16 @@
         <v>91</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="O136" s="2"/>
       <c r="P136" t="s" s="2">
@@ -19083,7 +19090,7 @@
         <v>82</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -19098,7 +19105,7 @@
         <v>102</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AL136" t="s" s="2">
         <v>82</v>
@@ -19107,7 +19114,7 @@
         <v>82</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AO136" t="s" s="2">
         <v>82</v>
@@ -19115,13 +19122,13 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="D137" t="s" s="2">
         <v>82</v>
@@ -19143,17 +19150,17 @@
         <v>91</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>82</v>
@@ -19202,7 +19209,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -19217,16 +19224,16 @@
         <v>102</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AN137" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AO137" t="s" s="2">
         <v>82</v>
@@ -19234,10 +19241,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19349,10 +19356,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19466,10 +19473,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19495,16 +19502,16 @@
         <v>172</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="O140" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>82</v>
@@ -19514,7 +19521,7 @@
         <v>82</v>
       </c>
       <c r="S140" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="T140" t="s" s="2">
         <v>82</v>
@@ -19532,10 +19539,10 @@
         <v>263</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Z140" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AA140" t="s" s="2">
         <v>82</v>
@@ -19553,7 +19560,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19568,7 +19575,7 @@
         <v>102</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AL140" t="s" s="2">
         <v>82</v>
@@ -19585,10 +19592,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19611,19 +19618,19 @@
         <v>91</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>82</v>
@@ -19633,7 +19640,7 @@
         <v>82</v>
       </c>
       <c r="S141" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="T141" t="s" s="2">
         <v>82</v>
@@ -19651,10 +19658,10 @@
         <v>154</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="Z141" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="AA141" t="s" s="2">
         <v>82</v>
@@ -19672,7 +19679,7 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -19687,7 +19694,7 @@
         <v>102</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>82</v>
@@ -19696,7 +19703,7 @@
         <v>82</v>
       </c>
       <c r="AN141" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AO141" t="s" s="2">
         <v>82</v>
@@ -19704,10 +19711,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19733,16 +19740,16 @@
         <v>132</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="O142" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>82</v>
@@ -19752,10 +19759,10 @@
         <v>82</v>
       </c>
       <c r="S142" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="T142" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="U142" t="s" s="2">
         <v>82</v>
@@ -19791,7 +19798,7 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -19806,7 +19813,7 @@
         <v>102</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AL142" t="s" s="2">
         <v>82</v>
@@ -19815,7 +19822,7 @@
         <v>82</v>
       </c>
       <c r="AN142" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AO142" t="s" s="2">
         <v>82</v>
@@ -19823,10 +19830,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19852,13 +19859,13 @@
         <v>104</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="O143" s="2"/>
       <c r="P143" t="s" s="2">
@@ -19872,7 +19879,7 @@
         <v>82</v>
       </c>
       <c r="T143" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="U143" t="s" s="2">
         <v>82</v>
@@ -19908,7 +19915,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -19923,7 +19930,7 @@
         <v>102</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AL143" t="s" s="2">
         <v>82</v>
@@ -19932,7 +19939,7 @@
         <v>82</v>
       </c>
       <c r="AN143" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AO143" t="s" s="2">
         <v>82</v>
@@ -19940,10 +19947,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -19966,13 +19973,13 @@
         <v>91</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -20023,7 +20030,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
@@ -20038,7 +20045,7 @@
         <v>102</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AL144" t="s" s="2">
         <v>82</v>
@@ -20047,7 +20054,7 @@
         <v>82</v>
       </c>
       <c r="AN144" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AO144" t="s" s="2">
         <v>82</v>
@@ -20055,10 +20062,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20081,16 +20088,16 @@
         <v>91</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="O145" s="2"/>
       <c r="P145" t="s" s="2">
@@ -20140,7 +20147,7 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -20155,7 +20162,7 @@
         <v>102</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AL145" t="s" s="2">
         <v>82</v>
@@ -20164,21 +20171,21 @@
         <v>82</v>
       </c>
       <c r="AN145" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AO145" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="146" hidden="true">
+    <row r="146">
       <c r="A146" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D146" t="s" s="2">
         <v>82</v>
@@ -20200,17 +20207,17 @@
         <v>91</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>82</v>
@@ -20259,7 +20266,7 @@
         <v>82</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -20274,16 +20281,16 @@
         <v>102</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AN146" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AO146" t="s" s="2">
         <v>82</v>
@@ -20291,10 +20298,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20406,10 +20413,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20523,10 +20530,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20552,16 +20559,16 @@
         <v>172</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="O149" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="P149" t="s" s="2">
         <v>82</v>
@@ -20590,7 +20597,7 @@
       </c>
       <c r="Y149" s="2"/>
       <c r="Z149" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AA149" t="s" s="2">
         <v>82</v>
@@ -20608,7 +20615,7 @@
         <v>82</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -20623,7 +20630,7 @@
         <v>102</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AL149" t="s" s="2">
         <v>82</v>
@@ -20640,10 +20647,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20666,19 +20673,19 @@
         <v>91</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="O150" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>82</v>
@@ -20688,7 +20695,7 @@
         <v>82</v>
       </c>
       <c r="S150" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="T150" t="s" s="2">
         <v>82</v>
@@ -20706,10 +20713,10 @@
         <v>154</v>
       </c>
       <c r="Y150" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="Z150" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="AA150" t="s" s="2">
         <v>82</v>
@@ -20727,7 +20734,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -20742,7 +20749,7 @@
         <v>102</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AL150" t="s" s="2">
         <v>82</v>
@@ -20751,7 +20758,7 @@
         <v>82</v>
       </c>
       <c r="AN150" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AO150" t="s" s="2">
         <v>82</v>
@@ -20759,10 +20766,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -20788,16 +20795,16 @@
         <v>132</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="O151" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>82</v>
@@ -20807,10 +20814,10 @@
         <v>82</v>
       </c>
       <c r="S151" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="T151" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="U151" t="s" s="2">
         <v>82</v>
@@ -20846,7 +20853,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
@@ -20861,7 +20868,7 @@
         <v>102</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AL151" t="s" s="2">
         <v>82</v>
@@ -20870,7 +20877,7 @@
         <v>82</v>
       </c>
       <c r="AN151" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AO151" t="s" s="2">
         <v>82</v>
@@ -20878,10 +20885,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20907,13 +20914,13 @@
         <v>104</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
@@ -20927,7 +20934,7 @@
         <v>82</v>
       </c>
       <c r="T152" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="U152" t="s" s="2">
         <v>82</v>
@@ -20963,7 +20970,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -20978,7 +20985,7 @@
         <v>102</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AL152" t="s" s="2">
         <v>82</v>
@@ -20987,7 +20994,7 @@
         <v>82</v>
       </c>
       <c r="AN152" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AO152" t="s" s="2">
         <v>82</v>
@@ -20995,10 +21002,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21021,13 +21028,13 @@
         <v>91</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
@@ -21078,7 +21085,7 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -21093,7 +21100,7 @@
         <v>102</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AL153" t="s" s="2">
         <v>82</v>
@@ -21102,7 +21109,7 @@
         <v>82</v>
       </c>
       <c r="AN153" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AO153" t="s" s="2">
         <v>82</v>
@@ -21110,10 +21117,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21136,16 +21143,16 @@
         <v>91</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="O154" s="2"/>
       <c r="P154" t="s" s="2">
@@ -21195,7 +21202,7 @@
         <v>82</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
@@ -21210,7 +21217,7 @@
         <v>102</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AL154" t="s" s="2">
         <v>82</v>
@@ -21219,7 +21226,7 @@
         <v>82</v>
       </c>
       <c r="AN154" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AO154" t="s" s="2">
         <v>82</v>
@@ -21227,10 +21234,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21253,70 +21260,70 @@
         <v>91</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="L155" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="M155" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="N155" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="O155" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="P155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q155" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="R155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF155" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="M155" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="O155" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="P155" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q155" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="R155" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S155" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T155" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U155" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V155" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W155" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X155" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y155" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z155" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA155" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB155" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC155" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD155" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE155" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF155" t="s" s="2">
-        <v>595</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
@@ -21331,13 +21338,13 @@
         <v>102</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="AL155" t="s" s="2">
         <v>108</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="AN155" t="s" s="2">
         <v>82</v>
@@ -21348,10 +21355,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21374,19 +21381,19 @@
         <v>91</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="O156" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>82</v>
@@ -21423,7 +21430,7 @@
         <v>82</v>
       </c>
       <c r="AB156" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="AC156" s="2"/>
       <c r="AD156" t="s" s="2">
@@ -21433,7 +21440,7 @@
         <v>117</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>80</v>
@@ -21448,16 +21455,16 @@
         <v>102</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="AM156" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN156" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="AO156" t="s" s="2">
         <v>82</v>
@@ -21465,13 +21472,13 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D157" t="s" s="2">
         <v>82</v>
@@ -21493,19 +21500,19 @@
         <v>91</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="O157" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>82</v>
@@ -21554,7 +21561,7 @@
         <v>82</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>80</v>
@@ -21569,16 +21576,16 @@
         <v>102</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="AM157" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN157" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="AO157" t="s" s="2">
         <v>82</v>
@@ -21586,10 +21593,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -21701,10 +21708,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21818,10 +21825,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21847,16 +21854,16 @@
         <v>172</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="O160" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>82</v>
@@ -21866,7 +21873,7 @@
         <v>82</v>
       </c>
       <c r="S160" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="T160" t="s" s="2">
         <v>82</v>
@@ -21884,10 +21891,10 @@
         <v>263</v>
       </c>
       <c r="Y160" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="Z160" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="AA160" t="s" s="2">
         <v>82</v>
@@ -21905,7 +21912,7 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
@@ -21920,7 +21927,7 @@
         <v>102</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AL160" t="s" s="2">
         <v>82</v>
@@ -21929,7 +21936,7 @@
         <v>82</v>
       </c>
       <c r="AN160" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AO160" t="s" s="2">
         <v>82</v>
@@ -21937,10 +21944,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -21966,16 +21973,16 @@
         <v>104</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="O161" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>82</v>
@@ -22024,7 +22031,7 @@
         <v>82</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
@@ -22039,7 +22046,7 @@
         <v>102</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AL161" t="s" s="2">
         <v>82</v>
@@ -22048,7 +22055,7 @@
         <v>82</v>
       </c>
       <c r="AN161" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="AO161" t="s" s="2">
         <v>82</v>
@@ -22056,14 +22063,14 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" t="s" s="2">
@@ -22085,13 +22092,13 @@
         <v>104</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="O162" s="2"/>
       <c r="P162" t="s" s="2">
@@ -22141,7 +22148,7 @@
         <v>82</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -22156,7 +22163,7 @@
         <v>102</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="AL162" t="s" s="2">
         <v>82</v>
@@ -22165,7 +22172,7 @@
         <v>82</v>
       </c>
       <c r="AN162" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="AO162" t="s" s="2">
         <v>82</v>
@@ -22173,14 +22180,14 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E163" s="2"/>
       <c r="F163" t="s" s="2">
@@ -22202,13 +22209,13 @@
         <v>104</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="O163" s="2"/>
       <c r="P163" t="s" s="2">
@@ -22258,7 +22265,7 @@
         <v>82</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -22273,7 +22280,7 @@
         <v>102</v>
       </c>
       <c r="AK163" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="AL163" t="s" s="2">
         <v>82</v>
@@ -22282,7 +22289,7 @@
         <v>82</v>
       </c>
       <c r="AN163" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="AO163" t="s" s="2">
         <v>82</v>
@@ -22290,10 +22297,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22319,10 +22326,10 @@
         <v>104</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" s="2"/>
@@ -22373,7 +22380,7 @@
         <v>82</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
@@ -22388,7 +22395,7 @@
         <v>102</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="AL164" t="s" s="2">
         <v>82</v>
@@ -22397,7 +22404,7 @@
         <v>82</v>
       </c>
       <c r="AN164" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="AO164" t="s" s="2">
         <v>82</v>
@@ -22405,10 +22412,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22434,10 +22441,10 @@
         <v>104</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" s="2"/>
@@ -22488,7 +22495,7 @@
         <v>82</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>80</v>
@@ -22503,7 +22510,7 @@
         <v>102</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="AL165" t="s" s="2">
         <v>82</v>
@@ -22512,7 +22519,7 @@
         <v>82</v>
       </c>
       <c r="AN165" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="AO165" t="s" s="2">
         <v>82</v>
@@ -22520,10 +22527,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22546,17 +22553,17 @@
         <v>91</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>82</v>
@@ -22605,7 +22612,7 @@
         <v>82</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>80</v>
@@ -22620,7 +22627,7 @@
         <v>102</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AL166" t="s" s="2">
         <v>82</v>
@@ -22629,21 +22636,21 @@
         <v>82</v>
       </c>
       <c r="AN166" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="AO166" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="167" hidden="true">
+    <row r="167">
       <c r="A167" t="s" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D167" t="s" s="2">
         <v>82</v>
@@ -22665,19 +22672,19 @@
         <v>91</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="O167" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="P167" t="s" s="2">
         <v>82</v>
@@ -22726,7 +22733,7 @@
         <v>82</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>80</v>
@@ -22741,16 +22748,16 @@
         <v>102</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="AM167" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN167" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="AO167" t="s" s="2">
         <v>82</v>
@@ -22758,10 +22765,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -22873,10 +22880,10 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -22986,15 +22993,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="170" hidden="true">
+    <row r="170">
       <c r="A170" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="D170" t="s" s="2">
         <v>82</v>
@@ -23016,13 +23023,13 @@
         <v>82</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" s="2"/>
@@ -23105,10 +23112,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23134,16 +23141,16 @@
         <v>172</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="O171" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>82</v>
@@ -23153,7 +23160,7 @@
         <v>82</v>
       </c>
       <c r="S171" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="T171" t="s" s="2">
         <v>82</v>
@@ -23171,10 +23178,10 @@
         <v>263</v>
       </c>
       <c r="Y171" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="Z171" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="AA171" t="s" s="2">
         <v>82</v>
@@ -23192,7 +23199,7 @@
         <v>82</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>80</v>
@@ -23207,7 +23214,7 @@
         <v>102</v>
       </c>
       <c r="AK171" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AL171" t="s" s="2">
         <v>82</v>
@@ -23216,7 +23223,7 @@
         <v>82</v>
       </c>
       <c r="AN171" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AO171" t="s" s="2">
         <v>82</v>
@@ -23224,10 +23231,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23253,16 +23260,16 @@
         <v>104</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="O172" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P172" t="s" s="2">
         <v>82</v>
@@ -23311,7 +23318,7 @@
         <v>82</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>80</v>
@@ -23326,7 +23333,7 @@
         <v>102</v>
       </c>
       <c r="AK172" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AL172" t="s" s="2">
         <v>82</v>
@@ -23335,7 +23342,7 @@
         <v>82</v>
       </c>
       <c r="AN172" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="AO172" t="s" s="2">
         <v>82</v>
@@ -23343,14 +23350,14 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="E173" s="2"/>
       <c r="F173" t="s" s="2">
@@ -23372,13 +23379,13 @@
         <v>104</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="O173" s="2"/>
       <c r="P173" t="s" s="2">
@@ -23428,7 +23435,7 @@
         <v>82</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>80</v>
@@ -23443,7 +23450,7 @@
         <v>102</v>
       </c>
       <c r="AK173" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="AL173" t="s" s="2">
         <v>82</v>
@@ -23452,7 +23459,7 @@
         <v>82</v>
       </c>
       <c r="AN173" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="AO173" t="s" s="2">
         <v>82</v>
@@ -23460,14 +23467,14 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E174" s="2"/>
       <c r="F174" t="s" s="2">
@@ -23489,13 +23496,13 @@
         <v>104</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="O174" s="2"/>
       <c r="P174" t="s" s="2">
@@ -23545,7 +23552,7 @@
         <v>82</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>80</v>
@@ -23560,7 +23567,7 @@
         <v>102</v>
       </c>
       <c r="AK174" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="AL174" t="s" s="2">
         <v>82</v>
@@ -23569,7 +23576,7 @@
         <v>82</v>
       </c>
       <c r="AN174" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="AO174" t="s" s="2">
         <v>82</v>
@@ -23577,10 +23584,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -23606,10 +23613,10 @@
         <v>104</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="N175" s="2"/>
       <c r="O175" s="2"/>
@@ -23660,7 +23667,7 @@
         <v>82</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>80</v>
@@ -23675,7 +23682,7 @@
         <v>102</v>
       </c>
       <c r="AK175" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="AL175" t="s" s="2">
         <v>82</v>
@@ -23684,7 +23691,7 @@
         <v>82</v>
       </c>
       <c r="AN175" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="AO175" t="s" s="2">
         <v>82</v>
@@ -23692,10 +23699,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -23721,10 +23728,10 @@
         <v>104</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
@@ -23775,7 +23782,7 @@
         <v>82</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>80</v>
@@ -23790,7 +23797,7 @@
         <v>102</v>
       </c>
       <c r="AK176" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="AL176" t="s" s="2">
         <v>82</v>
@@ -23799,7 +23806,7 @@
         <v>82</v>
       </c>
       <c r="AN176" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="AO176" t="s" s="2">
         <v>82</v>
@@ -23807,10 +23814,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -23833,17 +23840,17 @@
         <v>91</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="P177" t="s" s="2">
         <v>82</v>
@@ -23892,7 +23899,7 @@
         <v>82</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>80</v>
@@ -23907,7 +23914,7 @@
         <v>102</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AL177" t="s" s="2">
         <v>82</v>
@@ -23916,7 +23923,7 @@
         <v>82</v>
       </c>
       <c r="AN177" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="AO177" t="s" s="2">
         <v>82</v>
@@ -23924,10 +23931,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -23950,19 +23957,19 @@
         <v>91</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="O178" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>82</v>
@@ -24011,7 +24018,7 @@
         <v>82</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>80</v>
@@ -24026,27 +24033,27 @@
         <v>102</v>
       </c>
       <c r="AK178" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="AM178" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN178" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="AO178" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="179" hidden="true">
+    <row r="179">
       <c r="A179" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -24072,16 +24079,16 @@
         <v>172</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="O179" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="P179" t="s" s="2">
         <v>82</v>
@@ -24110,7 +24117,7 @@
       </c>
       <c r="Y179" s="2"/>
       <c r="Z179" t="s" s="2">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="AA179" t="s" s="2">
         <v>82</v>
@@ -24128,7 +24135,7 @@
         <v>82</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>80</v>
@@ -24143,27 +24150,27 @@
         <v>102</v>
       </c>
       <c r="AK179" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="AM179" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN179" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="AO179" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="180" hidden="true">
+    <row r="180">
       <c r="A180" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24189,16 +24196,16 @@
         <v>241</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="O180" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="P180" t="s" s="2">
         <v>82</v>
@@ -24247,7 +24254,7 @@
         <v>82</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>80</v>
@@ -24262,27 +24269,27 @@
         <v>102</v>
       </c>
       <c r="AK180" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="AL180" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="AM180" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN180" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="AO180" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24305,19 +24312,19 @@
         <v>91</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="N181" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="O181" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="P181" t="s" s="2">
         <v>82</v>
@@ -24366,7 +24373,7 @@
         <v>82</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>80</v>
@@ -24381,7 +24388,7 @@
         <v>102</v>
       </c>
       <c r="AK181" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="AL181" t="s" s="2">
         <v>108</v>
@@ -24390,7 +24397,7 @@
         <v>82</v>
       </c>
       <c r="AN181" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="AO181" t="s" s="2">
         <v>82</v>
@@ -24398,10 +24405,10 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -24427,16 +24434,16 @@
         <v>291</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="O182" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="P182" t="s" s="2">
         <v>82</v>
@@ -24485,7 +24492,7 @@
         <v>82</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>80</v>
@@ -24500,16 +24507,16 @@
         <v>102</v>
       </c>
       <c r="AK182" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="AL182" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="AM182" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN182" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="AO182" t="s" s="2">
         <v>82</v>
@@ -24517,10 +24524,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -24543,17 +24550,17 @@
         <v>82</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" t="s" s="2">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>82</v>
@@ -24582,7 +24589,7 @@
       </c>
       <c r="Y183" s="2"/>
       <c r="Z183" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="AA183" t="s" s="2">
         <v>82</v>
@@ -24600,7 +24607,7 @@
         <v>82</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>80</v>
@@ -24615,16 +24622,16 @@
         <v>102</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="AM183" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN183" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="AO183" t="s" s="2">
         <v>82</v>
@@ -24632,10 +24639,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -24658,19 +24665,19 @@
         <v>82</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="O184" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="P184" t="s" s="2">
         <v>82</v>
@@ -24719,7 +24726,7 @@
         <v>82</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>80</v>
@@ -24734,7 +24741,7 @@
         <v>102</v>
       </c>
       <c r="AK184" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="AL184" t="s" s="2">
         <v>108</v>
@@ -24743,7 +24750,7 @@
         <v>82</v>
       </c>
       <c r="AN184" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="AO184" t="s" s="2">
         <v>82</v>
@@ -24751,10 +24758,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -24777,19 +24784,19 @@
         <v>82</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="O185" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="P185" t="s" s="2">
         <v>82</v>
@@ -24838,7 +24845,7 @@
         <v>82</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>80</v>
@@ -24853,7 +24860,7 @@
         <v>102</v>
       </c>
       <c r="AK185" t="s" s="2">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="AL185" t="s" s="2">
         <v>108</v>
@@ -24862,7 +24869,7 @@
         <v>82</v>
       </c>
       <c r="AN185" t="s" s="2">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="AO185" t="s" s="2">
         <v>82</v>
@@ -24870,10 +24877,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -24896,19 +24903,19 @@
         <v>82</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="N186" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="O186" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="P186" t="s" s="2">
         <v>82</v>
@@ -24957,7 +24964,7 @@
         <v>82</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>80</v>
@@ -24969,10 +24976,10 @@
         <v>82</v>
       </c>
       <c r="AJ186" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="AK186" t="s" s="2">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="AL186" t="s" s="2">
         <v>108</v>
@@ -24989,10 +24996,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -25104,10 +25111,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -25217,13 +25224,13 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="D189" t="s" s="2">
         <v>82</v>
@@ -25245,13 +25252,13 @@
         <v>82</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="N189" s="2"/>
       <c r="O189" s="2"/>
@@ -25334,13 +25341,13 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="D190" t="s" s="2">
         <v>82</v>
@@ -25362,13 +25369,13 @@
         <v>82</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="N190" s="2"/>
       <c r="O190" s="2"/>
@@ -25451,14 +25458,14 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="E191" s="2"/>
       <c r="F191" t="s" s="2">
@@ -25480,16 +25487,16 @@
         <v>111</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="N191" t="s" s="2">
         <v>114</v>
       </c>
       <c r="O191" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="P191" t="s" s="2">
         <v>82</v>
@@ -25538,7 +25545,7 @@
         <v>82</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>80</v>
@@ -25570,10 +25577,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -25596,17 +25603,17 @@
         <v>82</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="P192" t="s" s="2">
         <v>82</v>
@@ -25634,10 +25641,10 @@
         <v>154</v>
       </c>
       <c r="Y192" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="Z192" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="AA192" t="s" s="2">
         <v>82</v>
@@ -25653,7 +25660,7 @@
         <v>117</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>80</v>
@@ -25668,7 +25675,7 @@
         <v>102</v>
       </c>
       <c r="AK192" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="AL192" t="s" s="2">
         <v>108</v>
@@ -25677,7 +25684,7 @@
         <v>82</v>
       </c>
       <c r="AN192" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="AO192" t="s" s="2">
         <v>82</v>
@@ -25685,13 +25692,13 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="D193" t="s" s="2">
         <v>82</v>
@@ -25713,17 +25720,17 @@
         <v>82</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="N193" s="2"/>
       <c r="O193" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="P193" t="s" s="2">
         <v>82</v>
@@ -25752,7 +25759,7 @@
       </c>
       <c r="Y193" s="2"/>
       <c r="Z193" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="AA193" t="s" s="2">
         <v>82</v>
@@ -25770,7 +25777,7 @@
         <v>82</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>80</v>
@@ -25785,7 +25792,7 @@
         <v>102</v>
       </c>
       <c r="AK193" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="AL193" t="s" s="2">
         <v>108</v>
@@ -25794,7 +25801,7 @@
         <v>82</v>
       </c>
       <c r="AN193" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="AO193" t="s" s="2">
         <v>82</v>
@@ -25802,13 +25809,13 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="D194" t="s" s="2">
         <v>82</v>
@@ -25830,17 +25837,17 @@
         <v>82</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="N194" s="2"/>
       <c r="O194" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="P194" t="s" s="2">
         <v>82</v>
@@ -25869,7 +25876,7 @@
       </c>
       <c r="Y194" s="2"/>
       <c r="Z194" t="s" s="2">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="AA194" t="s" s="2">
         <v>82</v>
@@ -25887,7 +25894,7 @@
         <v>82</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>80</v>
@@ -25902,7 +25909,7 @@
         <v>102</v>
       </c>
       <c r="AK194" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="AL194" t="s" s="2">
         <v>108</v>
@@ -25911,7 +25918,7 @@
         <v>82</v>
       </c>
       <c r="AN194" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="AO194" t="s" s="2">
         <v>82</v>
@@ -25919,10 +25926,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -25945,17 +25952,17 @@
         <v>82</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="N195" s="2"/>
       <c r="O195" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="P195" t="s" s="2">
         <v>82</v>
@@ -26004,7 +26011,7 @@
         <v>82</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>80</v>
@@ -26019,7 +26026,7 @@
         <v>102</v>
       </c>
       <c r="AK195" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AL195" t="s" s="2">
         <v>108</v>
@@ -26028,7 +26035,7 @@
         <v>82</v>
       </c>
       <c r="AN195" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="AO195" t="s" s="2">
         <v>82</v>
@@ -26036,10 +26043,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -26062,19 +26069,19 @@
         <v>82</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="O196" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="P196" t="s" s="2">
         <v>82</v>
@@ -26123,7 +26130,7 @@
         <v>82</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>80</v>
@@ -26138,7 +26145,7 @@
         <v>102</v>
       </c>
       <c r="AK196" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="AL196" t="s" s="2">
         <v>108</v>
@@ -26147,7 +26154,7 @@
         <v>82</v>
       </c>
       <c r="AN196" t="s" s="2">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="AO196" t="s" s="2">
         <v>82</v>
@@ -26155,10 +26162,10 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -26181,17 +26188,17 @@
         <v>82</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" t="s" s="2">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="P197" t="s" s="2">
         <v>82</v>
@@ -26240,7 +26247,7 @@
         <v>82</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="AG197" t="s" s="2">
         <v>80</v>
@@ -26255,7 +26262,7 @@
         <v>102</v>
       </c>
       <c r="AK197" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="AL197" t="s" s="2">
         <v>108</v>
@@ -26264,7 +26271,7 @@
         <v>82</v>
       </c>
       <c r="AN197" t="s" s="2">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="AO197" t="s" s="2">
         <v>82</v>
@@ -26272,10 +26279,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -26301,14 +26308,14 @@
         <v>172</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="N198" s="2"/>
       <c r="O198" t="s" s="2">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="P198" t="s" s="2">
         <v>82</v>
@@ -26336,10 +26343,10 @@
         <v>263</v>
       </c>
       <c r="Y198" t="s" s="2">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="Z198" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="AA198" t="s" s="2">
         <v>82</v>
@@ -26357,7 +26364,7 @@
         <v>82</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>80</v>
@@ -26372,7 +26379,7 @@
         <v>102</v>
       </c>
       <c r="AK198" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="AL198" t="s" s="2">
         <v>108</v>
@@ -26381,7 +26388,7 @@
         <v>82</v>
       </c>
       <c r="AN198" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="AO198" t="s" s="2">
         <v>82</v>
@@ -26389,10 +26396,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -26415,17 +26422,17 @@
         <v>82</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" t="s" s="2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="P199" t="s" s="2">
         <v>82</v>
@@ -26474,7 +26481,7 @@
         <v>82</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>80</v>
@@ -26483,13 +26490,13 @@
         <v>90</v>
       </c>
       <c r="AI199" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="AJ199" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK199" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="AL199" t="s" s="2">
         <v>108</v>
@@ -26498,7 +26505,7 @@
         <v>82</v>
       </c>
       <c r="AN199" t="s" s="2">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="AO199" t="s" s="2">
         <v>82</v>
@@ -26506,10 +26513,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -26532,13 +26539,13 @@
         <v>82</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="N200" s="2"/>
       <c r="O200" s="2"/>
@@ -26589,7 +26596,7 @@
         <v>82</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>80</v>
@@ -26604,7 +26611,7 @@
         <v>102</v>
       </c>
       <c r="AK200" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="AL200" t="s" s="2">
         <v>108</v>
@@ -26621,10 +26628,10 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -26647,19 +26654,19 @@
         <v>82</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="O201" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="P201" t="s" s="2">
         <v>82</v>
@@ -26708,7 +26715,7 @@
         <v>82</v>
       </c>
       <c r="AF201" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="AG201" t="s" s="2">
         <v>80</v>
@@ -26723,10 +26730,10 @@
         <v>102</v>
       </c>
       <c r="AK201" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="AL201" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="AM201" t="s" s="2">
         <v>82</v>
@@ -26740,10 +26747,10 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -26855,10 +26862,10 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -26972,14 +26979,14 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="E204" s="2"/>
       <c r="F204" t="s" s="2">
@@ -27001,16 +27008,16 @@
         <v>111</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="N204" t="s" s="2">
         <v>114</v>
       </c>
       <c r="O204" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="P204" t="s" s="2">
         <v>82</v>
@@ -27059,7 +27066,7 @@
         <v>82</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>80</v>
@@ -27091,10 +27098,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -27117,19 +27124,19 @@
         <v>82</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="O205" t="s" s="2">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="P205" t="s" s="2">
         <v>82</v>
@@ -27178,7 +27185,7 @@
         <v>82</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>90</v>
@@ -27193,16 +27200,16 @@
         <v>102</v>
       </c>
       <c r="AK205" t="s" s="2">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="AL205" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="AM205" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN205" t="s" s="2">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="AO205" t="s" s="2">
         <v>82</v>
@@ -27210,10 +27217,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -27236,19 +27243,19 @@
         <v>82</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="O206" t="s" s="2">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="P206" t="s" s="2">
         <v>82</v>
@@ -27297,7 +27304,7 @@
         <v>82</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>80</v>
@@ -27312,16 +27319,16 @@
         <v>102</v>
       </c>
       <c r="AK206" t="s" s="2">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="AL206" t="s" s="2">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="AM206" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN206" t="s" s="2">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="AO206" t="s" s="2">
         <v>82</v>
@@ -27329,14 +27336,14 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="E207" s="2"/>
       <c r="F207" t="s" s="2">
@@ -27355,16 +27362,16 @@
         <v>82</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="O207" s="2"/>
       <c r="P207" t="s" s="2">
@@ -27414,7 +27421,7 @@
         <v>82</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>80</v>
@@ -27429,7 +27436,7 @@
         <v>102</v>
       </c>
       <c r="AK207" t="s" s="2">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="AL207" t="s" s="2">
         <v>108</v>
@@ -27438,7 +27445,7 @@
         <v>82</v>
       </c>
       <c r="AN207" t="s" s="2">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="AO207" t="s" s="2">
         <v>82</v>
@@ -27446,10 +27453,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -27472,19 +27479,19 @@
         <v>91</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="O208" t="s" s="2">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="P208" t="s" s="2">
         <v>82</v>
@@ -27533,7 +27540,7 @@
         <v>82</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>80</v>
@@ -27548,10 +27555,10 @@
         <v>102</v>
       </c>
       <c r="AK208" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="AL208" t="s" s="2">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="AM208" t="s" s="2">
         <v>82</v>
@@ -27565,10 +27572,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -27591,19 +27598,19 @@
         <v>91</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="O209" t="s" s="2">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="P209" t="s" s="2">
         <v>82</v>
@@ -27652,7 +27659,7 @@
         <v>82</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>80</v>
@@ -27667,7 +27674,7 @@
         <v>102</v>
       </c>
       <c r="AK209" t="s" s="2">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="AL209" t="s" s="2">
         <v>108</v>
@@ -27684,10 +27691,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -27799,10 +27806,10 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -27916,14 +27923,14 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="E212" s="2"/>
       <c r="F212" t="s" s="2">
@@ -27945,16 +27952,16 @@
         <v>111</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="N212" t="s" s="2">
         <v>114</v>
       </c>
       <c r="O212" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="P212" t="s" s="2">
         <v>82</v>
@@ -28003,7 +28010,7 @@
         <v>82</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>80</v>
@@ -28035,10 +28042,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -28061,16 +28068,16 @@
         <v>91</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="N213" t="s" s="2">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="O213" s="2"/>
       <c r="P213" t="s" s="2">
@@ -28120,7 +28127,7 @@
         <v>82</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>90</v>
@@ -28135,7 +28142,7 @@
         <v>102</v>
       </c>
       <c r="AK213" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL213" t="s" s="2">
         <v>108</v>
@@ -28144,7 +28151,7 @@
         <v>82</v>
       </c>
       <c r="AN213" t="s" s="2">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="AO213" t="s" s="2">
         <v>82</v>
@@ -28152,10 +28159,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -28181,10 +28188,10 @@
         <v>172</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="N214" s="2"/>
       <c r="O214" s="2"/>
@@ -28214,28 +28221,28 @@
         <v>263</v>
       </c>
       <c r="Y214" t="s" s="2">
+        <v>901</v>
+      </c>
+      <c r="Z214" t="s" s="2">
+        <v>902</v>
+      </c>
+      <c r="AA214" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB214" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC214" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD214" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE214" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF214" t="s" s="2">
         <v>899</v>
-      </c>
-      <c r="Z214" t="s" s="2">
-        <v>900</v>
-      </c>
-      <c r="AA214" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB214" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC214" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD214" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE214" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF214" t="s" s="2">
-        <v>897</v>
       </c>
       <c r="AG214" t="s" s="2">
         <v>90</v>
@@ -28250,7 +28257,7 @@
         <v>102</v>
       </c>
       <c r="AK214" t="s" s="2">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="AL214" t="s" s="2">
         <v>108</v>
@@ -28267,12 +28274,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO214">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/main/ig/StructureDefinition-fr-core-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-fr-core-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T14:21:04+00:00</t>
+    <t>2025-11-06T10:11:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-fr-core-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T10:11:54+00:00</t>
+    <t>2025-11-07T16:50:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-fr-core-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T16:50:39+00:00</t>
+    <t>2025-11-07T17:06:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-fr-core-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T17:06:48+00:00</t>
+    <t>2025-11-07T17:36:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-fr-core-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T17:36:51+00:00</t>
+    <t>2025-11-29T07:55:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-fr-core-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T07:55:08+00:00</t>
+    <t>2025-12-05T17:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-fr-core-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-09T22:51:13+00:00</t>
+    <t>2025-12-17T08:23:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-fr-core-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T17:17:04+00:00</t>
+    <t>2025-12-29T08:10:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-fr-core-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T08:10:54+00:00</t>
+    <t>2026-01-09T10:08:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-fr-core-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T10:08:27+00:00</t>
+    <t>2026-01-12T10:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5490,7 +5490,7 @@
         <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>82</v>

--- a/main/ig/StructureDefinition-fr-core-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-fr-core-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-12T10:02:26+00:00</t>
+    <t>2026-01-21T08:47:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-fr-core-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-21T08:47:55+00:00</t>
+    <t>2026-01-28T09:35:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -88,7 +88,7 @@
   </si>
   <si>
     <t>FR Core Patient profile overspecified to comply with the requirements of the National Health Identity (INS) framework. The INS identifier can only be conveyed in the case of a qualified identity, which is why the identifier slices are defined in the FRCorePatientINS profile and not in the FRCorePatient profile.
-Profil Fr Core Patient surspécifié pour être conforme aux exigences du référentiel d'Identité Nationale de Santé (INS). Le matricule INS ne peut être véhiculé que dans le cas d'une identité qualifiée, raison pour laquelle les slices identifier sont définies au niveau du FRCorePatientINS et non au niveau du FRCorePatient.</t>
+Profil FR Core Patient surspécifié pour être conforme aux exigences du référentiel d'Identité Nationale de Santé (INS). Le matricule INS ne peut être véhiculé que dans le cas d'une identité qualifiée, raison pour laquelle les slices identifier sont définies au niveau du FRCorePatientINS et non au niveau du FRCorePatient.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -280,7 +280,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}fr-core-1:If identityReliability status = 'VALI', then at least Patient.identifier[INS-NIR] or Patient.identifier[INS-NIA] or Patient.identifier[INS-NIR-TEST] or Patient.identifier[INS-NIR-DEMO] SHALL be present {(extension('https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-identity-reliability').extension('identityStatus').value.exists(code = 'VALI')) implies (identifier.where(system = 'urn:oid:1.2.250.1.213.1.4.8' and use = 'official').exists() or identifier.where(system = 'urn:oid:1.2.250.1.213.1.4.9' and use = 'official').exists() or identifier.where(system = 'urn:oid:1.2.250.1.213.1.4.10' and use = 'official').exists() or identifier.where(system = 'urn:oid:1.2.250.1.213.1.4.11' and use = 'official').exists())}fr-core-2:If identityReliability status = 'VALI', then only one identifier of type official SHALL be present {(extension('https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-identity-reliability').extension('identityStatus').value.exists(code = 'VALI')) implies (identifier.where(use = 'official').count() = 1)}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}fr-core-1:If identityReliability status = 'VALI', then at least Patient.identifier[INS-NIR] or Patient.identifier[INS-NIA] or Patient.identifier[INS-NIR-TEST] or Patient.identifier[INS-NIR-DEMO] SHALL be present {(extension('https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-identity-reliability').extension('identityStatus').value.exists(code = 'VALI')) implies (identifier.where(system = 'urn:oid:1.2.250.1.213.1.4.8' and use = 'official').exists() or identifier.where(system = 'urn:oid:1.2.250.1.213.1.4.9' and use = 'official').exists() or identifier.where(system = 'urn:oid:1.2.250.1.213.1.4.10' and use = 'official').exists() or identifier.where(system = 'urn:oid:1.2.250.1.213.1.4.11' and use = 'official').exists())}fr-core-2:If identityReliability status = 'VALI', then only one identifier of type official SHALL be present {(extension('https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-identity-reliability').extension('identityStatus').value.exists(code = 'VALI')) implies (identifier.where(use = 'official').count() = 1)}fr-core-3:If identityReliability status = 'VALI', then the municipality of birth COG code cannot be 99999 because this code cannot be sent by the INSI online service. {(extension('https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-identity-reliability').extension('identityStatus').value.exists(code = 'VALI')) implies extension('http://hl7.org/fhir/StructureDefinition/patient-birthPlace').value.extension('https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address-insee-code').value.code != '99999')}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>

--- a/main/ig/StructureDefinition-fr-core-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-fr-core-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-28T09:35:28+00:00</t>
+    <t>2026-01-28T10:29:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-fr-core-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-28T10:29:57+00:00</t>
+    <t>2026-01-29T08:32:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-fr-core-patient-ins.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-ballot</t>
+    <t>2.2.0-ballot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T08:32:45+00:00</t>
+    <t>2026-01-29T08:34:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Interop'Santé (http://interopsante.org/)</t>
+    <t>Interop'Santé (http://interopsante.org)</t>
   </si>
   <si>
     <t>InteropSanté (fhir@interopsante.org(Work))</t>
@@ -118,7 +118,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|2.2.0-ballot</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|2.2.0-ballot-2</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -482,7 +482,7 @@
     <t>fr-ins-canonical</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-ins|2.2.0-ballot</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-ins|2.2.0-ballot-2</t>
   </si>
   <si>
     <t>Patient.meta.security</t>
@@ -650,7 +650,7 @@
     <t>nationality</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-nationality|2.2.0-ballot}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-nationality|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -670,7 +670,7 @@
     <t>identityReliability</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-identity-reliability|2.2.0-ballot}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-identity-reliability|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -745,7 +745,7 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-identity-method-collection|2.2.0-ballot</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-identity-method-collection|2.2.0-ballot-2</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -797,7 +797,7 @@
     <t>Patient.extension:identityReliability.extension:identityStatus.value[x]</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-identity-reliability|2.2.0-ballot</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-identity-reliability|2.2.0-ballot-2</t>
   </si>
   <si>
     <t>Patient.extension:identityReliability.extension:validationDate</t>
@@ -842,7 +842,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-mode-validation-identity-ins|2.2.0-ballot</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-mode-validation-identity-ins|2.2.0-ballot-2</t>
   </si>
   <si>
     <t>Patient.extension:identityReliability.url</t>
@@ -870,7 +870,7 @@
     <t>deathPlace</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-death-place|2.2.0-ballot}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-death-place|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -888,7 +888,7 @@
     <t>birthDateUpdateIndicator</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birthdate-update-indicator|2.2.0-ballot}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birthdate-update-indicator|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -929,7 +929,7 @@
     <t>Patient.extension:birthPlace.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.2.0-ballot}
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -958,7 +958,7 @@
     <t>inseeCode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address-insee-code|2.2.0-ballot}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address-insee-code|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -1265,7 +1265,7 @@
     <t>multipleBirth</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Patient.multipleBirth|2.2.0-ballot}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Patient.multipleBirth|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -1410,7 +1410,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-identifier-type|2.2.0-ballot</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-identifier-type|2.2.0-ballot-2</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1642,7 +1642,7 @@
     <t>La valeur old permet d'identifier des IPP désactivés (en cas de fusion d'identité pour résoudre des problèmes de doublonnage par exemple)</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-identifier-use-pi|2.2.0-ballot</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-identifier-use-pi|2.2.0-ballot-2</t>
   </si>
   <si>
     <t>Patient.identifier:PI.type</t>
@@ -1735,7 +1735,7 @@
     <t>La valeur old permet d'identifier des INS désactivés (permettant de noter l'ancien INS-NIR en cas de changement de sexe par exemple)</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-identifier-use-ins|2.2.0-ballot</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-identifier-use-ins|2.2.0-ballot-2</t>
   </si>
   <si>
     <t>Patient.identifier:INS-NIR.type</t>
@@ -1948,7 +1948,7 @@
     <t>Patient.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name|2.2.0-ballot}
+    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -2202,7 +2202,7 @@
     <t>birth-list-given-name</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birth-list-given-name|2.2.0-ballot}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birth-list-given-name|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -2239,7 +2239,7 @@
     <t>Patient.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.2.0-ballot}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -2279,7 +2279,7 @@
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-gender|2.2.0-ballot</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-gender|2.2.0-ballot-2</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/administrativeGender</t>
@@ -2379,7 +2379,7 @@
     <t>Most, if not all systems capture it.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-marital-status|2.2.0-ballot</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-marital-status|2.2.0-ballot-2</t>
   </si>
   <si>
     <t>player[classCode=PSN]/maritalStatusCode</t>
@@ -2482,7 +2482,7 @@
     <t>contactIdentifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-contact-identifier|2.2.0-ballot}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-contact-identifier|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -2500,7 +2500,7 @@
     <t>comment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-comment|2.2.0-ballot}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-comment|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -2561,7 +2561,7 @@
     <t>The nature of the relationship. Rôle de la personne. Ex : personne de confiance, aidant ...</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-contact-role|2.2.0-ballot</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-contact-role|2.2.0-ballot-2</t>
   </si>
   <si>
     <t>Patient.contact.relationship:relationType</t>
@@ -2573,7 +2573,7 @@
     <t>The nature of the relationship. Relation de la personne. Ex : Mère, époux, enfant ...</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-relation-type|2.2.0-ballot</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-relation-type|2.2.0-ballot-2</t>
   </si>
   <si>
     <t>Patient.contact.name</t>
@@ -2765,7 +2765,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|2.2.0-ballot|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot|PractitionerRole|4.0.1)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|2.2.0-ballot-2|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot-2|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -2789,7 +2789,7 @@
     <t>Patient.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot|Organization|4.0.1)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot-2|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -3230,7 +3230,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="69.14453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="64.65625" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-fr-core-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-fr-core-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T08:34:51+00:00</t>
+    <t>2026-01-29T08:41:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-fr-core-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T08:41:18+00:00</t>
+    <t>2026-01-30T10:25:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
